--- a/GWAS_results/compiled.xlsx
+++ b/GWAS_results/compiled.xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesarmedina/Documents/git/Biodigestibility_Alfalfa/GWAS_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB9267D-0C20-9342-9EA0-6E92DDC498A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5122E9-832C-6744-B3CB-07CCBD5BC2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33200" yWindow="120" windowWidth="26840" windowHeight="15440" activeTab="3" xr2:uid="{42191CCB-88FE-6C40-9BA0-C750B6E3863E}"/>
+    <workbookView xWindow="33200" yWindow="500" windowWidth="26840" windowHeight="15440" activeTab="7" xr2:uid="{42191CCB-88FE-6C40-9BA0-C750B6E3863E}"/>
   </bookViews>
   <sheets>
     <sheet name="Smit1_raw" sheetId="1" r:id="rId1"/>
     <sheet name="Smit2" sheetId="2" r:id="rId2"/>
     <sheet name="Cesar1_raw" sheetId="3" r:id="rId3"/>
-    <sheet name="Cesar2" sheetId="4" r:id="rId4"/>
+    <sheet name="Cesar2_ST1" sheetId="4" r:id="rId4"/>
+    <sheet name="ST2_raw" sheetId="5" r:id="rId5"/>
+    <sheet name="ST2" sheetId="6" r:id="rId6"/>
+    <sheet name="ST1_ST2" sheetId="7" r:id="rId7"/>
+    <sheet name="Unique_markers" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Cesar1_raw!$A$1:$A$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Cesar2!$A$1:$G$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Cesar2_ST1!$A$1:$G$32</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="158">
   <si>
     <t>Trait</t>
   </si>
@@ -436,13 +440,97 @@
   </si>
   <si>
     <t>Env_Trait</t>
+  </si>
+  <si>
+    <t>all_Ash</t>
+  </si>
+  <si>
+    <t>OR_2020_CP</t>
+  </si>
+  <si>
+    <t>ID_2020_ER6</t>
+  </si>
+  <si>
+    <t>WA_2021_SP</t>
+  </si>
+  <si>
+    <t>Chr8_20816275</t>
+  </si>
+  <si>
+    <t>UPI000E1D4576</t>
+  </si>
+  <si>
+    <t>ribosome biogenesis protein WDR12 homolog</t>
+  </si>
+  <si>
+    <t>Chr6_3593448</t>
+  </si>
+  <si>
+    <t>Chr3_43222952</t>
+  </si>
+  <si>
+    <t>Chr2_21954840</t>
+  </si>
+  <si>
+    <t>UPI001016AAD9</t>
+  </si>
+  <si>
+    <t>NADH dehydrogenase [ubiquinone] 1 alpha subcomplex subunit 2</t>
+  </si>
+  <si>
+    <t>Chr5_11734606</t>
+  </si>
+  <si>
+    <t>Chr8_25109339</t>
+  </si>
+  <si>
+    <t>A0A2C9VTA9</t>
+  </si>
+  <si>
+    <t>AT-hook motif nuclear-localized protein</t>
+  </si>
+  <si>
+    <t>ER6</t>
+  </si>
+  <si>
+    <t>A; A2; B; B1</t>
+  </si>
+  <si>
+    <t>ADICP; NDICP</t>
+  </si>
+  <si>
+    <t>A; B</t>
+  </si>
+  <si>
+    <t>A; B1</t>
+  </si>
+  <si>
+    <t>ERD6; kd</t>
+  </si>
+  <si>
+    <t>Stage_analysis</t>
+  </si>
+  <si>
+    <t>Stage-wise</t>
+  </si>
+  <si>
+    <t>Single-stage</t>
+  </si>
+  <si>
+    <t>Table #. Significant markers associated with digestibility in alfalfa. Digestibility traits were analyzed by single-stage and stage-wise analysis in different environments (env). Marker positions were used to identify loci and their genes associated. Gey cells represent markers in multiple env and a dotted line is used to differentiate adjacent markers in multiple env-trait.</t>
+  </si>
+  <si>
+    <t>Table #. Unique markers associated with alfalfa digestibility. Digestibility traits were analyzed by single-stage and stage-wise analysis. Some markers were significantly associated in both analysis (1).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -463,8 +551,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,8 +584,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -512,18 +619,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,6 +668,63 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,7 +1042,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+      <selection activeCell="C16" sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3392,8 +3583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA81964-E4F8-9948-BDE8-788A92199571}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4145,4 +4336,4218 @@
   <autoFilter ref="A1:G32" xr:uid="{BDA81964-E4F8-9948-BDE8-788A92199571}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557872F6-4E60-D344-99BB-C68508900D07}">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <v>6.14</v>
+      </c>
+      <c r="D2">
+        <v>44076</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2">
+        <v>77929059</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>6.63</v>
+      </c>
+      <c r="J2">
+        <v>1.25474379841096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>6.27</v>
+      </c>
+      <c r="D3">
+        <v>83741</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3">
+        <v>20816275</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>6.8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4">
+        <v>6.27</v>
+      </c>
+      <c r="D4">
+        <v>4158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4">
+        <v>37676198</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>6.61</v>
+      </c>
+      <c r="J4">
+        <v>0.45892609597649398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5">
+        <v>5.79</v>
+      </c>
+      <c r="D5">
+        <v>58517</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5">
+        <v>3593448</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>5.87</v>
+      </c>
+      <c r="J5">
+        <v>0.68433744146022901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6">
+        <v>5.79</v>
+      </c>
+      <c r="D6">
+        <v>58518</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6">
+        <v>3593463</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>6.36</v>
+      </c>
+      <c r="J6">
+        <v>-0.66293046908685904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7">
+        <v>5.79</v>
+      </c>
+      <c r="D7">
+        <v>58519</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7">
+        <v>3593483</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>6.36</v>
+      </c>
+      <c r="J7">
+        <v>0.66293046844657499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8">
+        <v>5.79</v>
+      </c>
+      <c r="D8">
+        <v>58517</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8">
+        <v>3593448</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>5.87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9">
+        <v>5.79</v>
+      </c>
+      <c r="D9">
+        <v>58518</v>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9">
+        <v>3593463</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>6.36</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10">
+        <v>5.79</v>
+      </c>
+      <c r="D10">
+        <v>58519</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10">
+        <v>3593483</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>6.36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11">
+        <v>5.49</v>
+      </c>
+      <c r="D11">
+        <v>58518</v>
+      </c>
+      <c r="E11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11">
+        <v>3593463</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>6.36</v>
+      </c>
+      <c r="J11">
+        <v>-0.66293046908685904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12">
+        <v>5.48</v>
+      </c>
+      <c r="D12">
+        <v>58517</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12">
+        <v>3593448</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>5.87</v>
+      </c>
+      <c r="J12">
+        <v>0.68433744128560603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13">
+        <v>5.48</v>
+      </c>
+      <c r="D13">
+        <v>58519</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13">
+        <v>3593483</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>6.36</v>
+      </c>
+      <c r="J13">
+        <v>0.66293046876671702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>6.27</v>
+      </c>
+      <c r="D14">
+        <v>4158</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14">
+        <v>37676198</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>6.86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15">
+        <v>6.27</v>
+      </c>
+      <c r="D15">
+        <v>4158</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15">
+        <v>37676198</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>7.73</v>
+      </c>
+      <c r="J15">
+        <v>-0.92458961810916696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16">
+        <v>6.14</v>
+      </c>
+      <c r="D16">
+        <v>68814</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16">
+        <v>113719739</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>6.57</v>
+      </c>
+      <c r="J16">
+        <v>6.3283327694080099E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17">
+        <v>5.49</v>
+      </c>
+      <c r="D17">
+        <v>14791</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17">
+        <v>19520401</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>5.66</v>
+      </c>
+      <c r="J17">
+        <v>-9.7723456445923104E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>6.27</v>
+      </c>
+      <c r="D18">
+        <v>27429</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18">
+        <v>43222952</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>7.4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19">
+        <v>6.27</v>
+      </c>
+      <c r="D19">
+        <v>15158</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19">
+        <v>21954840</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>6.3</v>
+      </c>
+      <c r="J19">
+        <v>9.9084134912118302E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20">
+        <v>6.14</v>
+      </c>
+      <c r="D20">
+        <v>27429</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20">
+        <v>43222952</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>8.14</v>
+      </c>
+      <c r="J20">
+        <v>0.24829385685734501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <v>6.14</v>
+      </c>
+      <c r="D21">
+        <v>44076</v>
+      </c>
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21">
+        <v>77929059</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>7.28</v>
+      </c>
+      <c r="J21">
+        <v>-1.2352976194846399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>6.27</v>
+      </c>
+      <c r="D22">
+        <v>4158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22">
+        <v>37676198</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>6.44</v>
+      </c>
+      <c r="J22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23">
+        <v>6.27</v>
+      </c>
+      <c r="D23">
+        <v>4158</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23">
+        <v>37676198</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>7.29</v>
+      </c>
+      <c r="J23">
+        <v>-0.63920487090945199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24">
+        <v>6.27</v>
+      </c>
+      <c r="D24">
+        <v>4158</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24">
+        <v>37676198</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>6.35</v>
+      </c>
+      <c r="J24">
+        <v>0.61633287696167804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25">
+        <v>5.79</v>
+      </c>
+      <c r="D25">
+        <v>58517</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25">
+        <v>3593448</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>5.94</v>
+      </c>
+      <c r="J25">
+        <v>0.94175262330099896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26">
+        <v>5.79</v>
+      </c>
+      <c r="D26">
+        <v>58518</v>
+      </c>
+      <c r="E26" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26">
+        <v>3593463</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>6.3</v>
+      </c>
+      <c r="J26">
+        <v>-0.90216550976038001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27">
+        <v>5.79</v>
+      </c>
+      <c r="D27">
+        <v>58519</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27">
+        <v>3593483</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>6.3</v>
+      </c>
+      <c r="J27">
+        <v>0.90216550976038001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28">
+        <v>5.79</v>
+      </c>
+      <c r="D28">
+        <v>58517</v>
+      </c>
+      <c r="E28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28">
+        <v>3593448</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>5.94</v>
+      </c>
+      <c r="J28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29">
+        <v>5.79</v>
+      </c>
+      <c r="D29">
+        <v>58518</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29">
+        <v>3593463</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>6.3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30">
+        <v>5.79</v>
+      </c>
+      <c r="D30">
+        <v>58519</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30">
+        <v>3593483</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>6.3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31">
+        <v>5.49</v>
+      </c>
+      <c r="D31">
+        <v>58518</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31">
+        <v>3593463</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>6.3</v>
+      </c>
+      <c r="J31">
+        <v>-0.90216550976038001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32">
+        <v>5.48</v>
+      </c>
+      <c r="D32">
+        <v>58517</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32">
+        <v>3593448</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>5.94</v>
+      </c>
+      <c r="J32">
+        <v>0.94175262353383005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33">
+        <v>5.48</v>
+      </c>
+      <c r="D33">
+        <v>58519</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33">
+        <v>3593483</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>6.3</v>
+      </c>
+      <c r="J33">
+        <v>0.90216551127377898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34">
+        <v>6.14</v>
+      </c>
+      <c r="D34">
+        <v>82117</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34">
+        <v>9578043</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>6.19</v>
+      </c>
+      <c r="J34">
+        <v>0.27093267327290999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35">
+        <v>6.14</v>
+      </c>
+      <c r="D35">
+        <v>48247</v>
+      </c>
+      <c r="E35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35">
+        <v>11734606</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>6.54</v>
+      </c>
+      <c r="J35">
+        <v>-0.47825171073526102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36">
+        <v>5.48</v>
+      </c>
+      <c r="D36">
+        <v>75746</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36">
+        <v>63108639</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>5.55</v>
+      </c>
+      <c r="J36">
+        <v>-1.1514489221581501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37">
+        <v>5.79</v>
+      </c>
+      <c r="D37">
+        <v>75746</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37">
+        <v>63108639</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>5.84</v>
+      </c>
+      <c r="J37">
+        <v>-3.3437411434373799E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38">
+        <v>5.79</v>
+      </c>
+      <c r="D38">
+        <v>75746</v>
+      </c>
+      <c r="E38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38">
+        <v>63108639</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>5.84</v>
+      </c>
+      <c r="J38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39">
+        <v>5.48</v>
+      </c>
+      <c r="D39">
+        <v>75746</v>
+      </c>
+      <c r="E39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39">
+        <v>63108639</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>5.84</v>
+      </c>
+      <c r="J39">
+        <v>-3.3437411434365698E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>6.27</v>
+      </c>
+      <c r="D40">
+        <v>33301</v>
+      </c>
+      <c r="E40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40">
+        <v>92180840</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>6.79</v>
+      </c>
+      <c r="J40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <v>6.27</v>
+      </c>
+      <c r="D41">
+        <v>33302</v>
+      </c>
+      <c r="E41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41">
+        <v>92180843</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>6.79</v>
+      </c>
+      <c r="J41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42">
+        <v>6.27</v>
+      </c>
+      <c r="D42">
+        <v>90133</v>
+      </c>
+      <c r="E42" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42">
+        <v>74954096</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>6.33</v>
+      </c>
+      <c r="J42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43">
+        <v>6.14</v>
+      </c>
+      <c r="D43">
+        <v>47172</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43">
+        <v>3700030</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>6.4</v>
+      </c>
+      <c r="J43">
+        <v>8.8921297920023804E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44">
+        <v>6.14</v>
+      </c>
+      <c r="D44">
+        <v>68814</v>
+      </c>
+      <c r="E44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44">
+        <v>113719739</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>6.24</v>
+      </c>
+      <c r="J44">
+        <v>0.139509016036754</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45">
+        <v>6.27</v>
+      </c>
+      <c r="D45">
+        <v>43915</v>
+      </c>
+      <c r="E45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45">
+        <v>77368215</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>6.37</v>
+      </c>
+      <c r="J45">
+        <v>0.31835873797689401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46">
+        <v>5.49</v>
+      </c>
+      <c r="D46">
+        <v>84211</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46">
+        <v>25109339</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>5.52</v>
+      </c>
+      <c r="J46">
+        <v>0.76046107000274799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE5563A-A2A5-4841-8FA8-AF651ED85BC3}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="12">
+        <v>6.61</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.45892609597649398</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="12">
+        <v>6.86</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="12">
+        <v>6.44</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="12">
+        <v>6.35</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.61633287696167804</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5.66</v>
+      </c>
+      <c r="D6" s="10">
+        <v>-9.7723456445923104E-2</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6.3</v>
+      </c>
+      <c r="D7" s="10">
+        <v>9.9084134912118302E-2</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12">
+        <v>6.79</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="12">
+        <v>6.79</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="9">
+        <v>6.37</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.31835873797689401</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="12">
+        <v>6.63</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1.25474379841096</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="12">
+        <v>7.28</v>
+      </c>
+      <c r="D13" s="13">
+        <v>-1.2352976194846399</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="D14" s="10">
+        <v>8.8921297920023804E-2</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="9">
+        <v>6.54</v>
+      </c>
+      <c r="D15" s="10">
+        <v>-0.47825171073526102</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="16">
+        <v>5.87</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.68433744146022901</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="12">
+        <v>5.94</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.94175262330099896</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="12">
+        <v>6.36</v>
+      </c>
+      <c r="D18" s="13">
+        <v>-0.66293046908685904</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="D19" s="13">
+        <v>-0.90216550976038001</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="12">
+        <v>6.36</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0.66293046844657499</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.90216550976038001</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="16">
+        <v>6.57</v>
+      </c>
+      <c r="D22" s="17">
+        <v>6.3283327694080099E-2</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="14">
+        <v>6.24</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.139509016036754</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="12">
+        <v>5.55</v>
+      </c>
+      <c r="D24" s="13">
+        <v>-1.1514489221581501</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="14">
+        <v>5.84</v>
+      </c>
+      <c r="D25" s="15">
+        <v>-3.3437411434373799E-3</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="9">
+        <v>6.19</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.27093267327290999</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="9">
+        <v>5.52</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.76046107000274799</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="5">
+        <v>6.33</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FA2F1F-709C-7548-865E-2BB2122DDCAC}">
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5.49</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.7360541187706802</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7.01</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6.58</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6.54</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.83</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-0.130487923051813</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6.42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7.11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7.77</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7.16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7.81</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6.33</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.60605598161524199</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.0031431879335</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7.12</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-2.03089366797315</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6.34</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.12103298236616</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5.78</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1.4420122740677801</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="4">
+        <v>6.52</v>
+      </c>
+      <c r="E19" s="4">
+        <v>-2.3956232589891902</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="E20" s="4">
+        <v>-1.3881124703824499</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="16">
+        <v>6.52</v>
+      </c>
+      <c r="E21" s="16">
+        <v>2.39562325898601</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6.34</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1.3881124703822301</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5.57</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1.31365259775885</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3">
+        <v>6.16</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5.2169847425614098</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6.52</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.10290938329126199</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3">
+        <v>5.66</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2.0970204336632299</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5.69</v>
+      </c>
+      <c r="E27" s="4">
+        <v>-5.3845107428983604E-3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>-1.5880653606558801</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="3">
+        <v>6.21</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.331418259142083</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="E30" s="3">
+        <v>-2.6488381787579001</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="3">
+        <v>6.47</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3.7023872053030299E-3</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3">
+        <v>6.65</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="9">
+        <v>6.36</v>
+      </c>
+      <c r="E33" s="9">
+        <v>-0.36915468144115898</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="18">
+        <v>6.61</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0.45892609597649398</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="12">
+        <v>6.86</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="12">
+        <v>6.44</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="12">
+        <v>6.35</v>
+      </c>
+      <c r="E37" s="13">
+        <v>0.61633287696167804</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="9">
+        <v>5.66</v>
+      </c>
+      <c r="E38" s="10">
+        <v>-9.7723456445923104E-2</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="9">
+        <v>6.3</v>
+      </c>
+      <c r="E39" s="10">
+        <v>9.9084134912118302E-2</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="9">
+        <v>7.4</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="12">
+        <v>6.79</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="12">
+        <v>6.79</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="9">
+        <v>6.37</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0.31835873797689401</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="12">
+        <v>6.63</v>
+      </c>
+      <c r="E44" s="13">
+        <v>1.25474379841096</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="12">
+        <v>7.28</v>
+      </c>
+      <c r="E45" s="13">
+        <v>-1.2352976194846399</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="E46" s="10">
+        <v>8.8921297920023804E-2</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="9">
+        <v>6.54</v>
+      </c>
+      <c r="E47" s="10">
+        <v>-0.47825171073526102</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="12">
+        <v>5.87</v>
+      </c>
+      <c r="E48" s="13">
+        <v>0.68433744146022901</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="14">
+        <v>5.94</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0.94175262330099896</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="16">
+        <v>6.36</v>
+      </c>
+      <c r="E50" s="17">
+        <v>-0.66293046908685904</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="E51" s="15">
+        <v>-0.90216550976038001</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="16">
+        <v>6.36</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0.66293046844657499</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="12">
+        <v>6.3</v>
+      </c>
+      <c r="E53" s="13">
+        <v>0.90216550976038001</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="16">
+        <v>6.57</v>
+      </c>
+      <c r="E54" s="17">
+        <v>6.3283327694080099E-2</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="14">
+        <v>6.24</v>
+      </c>
+      <c r="E55" s="15">
+        <v>0.139509016036754</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="12">
+        <v>5.55</v>
+      </c>
+      <c r="E56" s="13">
+        <v>-1.1514489221581501</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="12">
+        <v>5.84</v>
+      </c>
+      <c r="E57" s="13">
+        <v>-3.3437411434373799E-3</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="9">
+        <v>6.19</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0.27093267327290999</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="9">
+        <v>5.52</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0.76046107000274799</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="5">
+        <v>6.33</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2391535-8C61-E249-B0E0-9FD0DB5654F8}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="22">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="22">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="22">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0</v>
+      </c>
+      <c r="D15" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="22">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="22">
+        <v>1</v>
+      </c>
+      <c r="D18" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="22">
+        <v>1</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="22">
+        <v>1</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="22">
+        <v>1</v>
+      </c>
+      <c r="D23" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="22">
+        <v>1</v>
+      </c>
+      <c r="D24" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0</v>
+      </c>
+      <c r="D25" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
+      <c r="D26" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="22">
+        <v>1</v>
+      </c>
+      <c r="D27" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="22">
+        <v>1</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="22">
+        <v>1</v>
+      </c>
+      <c r="D29" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="25">
+        <v>1</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GWAS_results/compiled.xlsx
+++ b/GWAS_results/compiled.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesarmedina/Documents/git/Biodigestibility_Alfalfa/GWAS_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5122E9-832C-6744-B3CB-07CCBD5BC2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9225D27-7022-C649-BD71-C7839CDE7D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33200" yWindow="500" windowWidth="26840" windowHeight="15440" activeTab="7" xr2:uid="{42191CCB-88FE-6C40-9BA0-C750B6E3863E}"/>
   </bookViews>
@@ -517,10 +517,10 @@
     <t>Single-stage</t>
   </si>
   <si>
-    <t>Table #. Significant markers associated with digestibility in alfalfa. Digestibility traits were analyzed by single-stage and stage-wise analysis in different environments (env). Marker positions were used to identify loci and their genes associated. Gey cells represent markers in multiple env and a dotted line is used to differentiate adjacent markers in multiple env-trait.</t>
-  </si>
-  <si>
-    <t>Table #. Unique markers associated with alfalfa digestibility. Digestibility traits were analyzed by single-stage and stage-wise analysis. Some markers were significantly associated in both analysis (1).</t>
+    <t>Table 1. Significant markers associated with digestibility in alfalfa. Digestibility traits were analyzed by single-stage and stage-wise analysis in different environments (env). Marker positions were used to identify loci and their genes associated. Gey cells represent markers in multiple env and a dotted line is used to differentiate adjacent markers in multiple env-trait.</t>
+  </si>
+  <si>
+    <t>Table 2. Unique markers associated with alfalfa digestibility. Digestibility traits were analyzed by single-stage and stage-wise analysis. Some markers were significantly associated in both analysis (1).</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -650,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -668,46 +668,40 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,10 +713,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5868,623 +5862,623 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="4">
         <v>6.61</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <v>0.45892609597649398</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="4">
         <v>6.86</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="4">
         <v>6.44</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="4">
         <v>6.35</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>0.61633287696167804</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="3">
         <v>5.66</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>-9.7723456445923104E-2</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="3">
         <v>6.3</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>9.9084134912118302E-2</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="3">
         <v>7.4</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="4">
         <v>6.79</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="4">
         <v>6.79</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="D10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="3">
         <v>6.37</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>0.31835873797689401</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="4">
         <v>6.63</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>1.25474379841096</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="4">
         <v>7.28</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>-1.2352976194846399</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="3">
         <v>6.4</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>8.8921297920023804E-2</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="3">
         <v>6.54</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>-0.47825171073526102</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>5.87</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>0.68433744146022901</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="4">
         <v>5.94</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>0.94175262330099896</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="4">
         <v>6.36</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <v>-0.66293046908685904</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="4">
         <v>6.3</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>-0.90216550976038001</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="4">
         <v>6.36</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="11">
         <v>0.66293046844657499</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>6.3</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>0.90216550976038001</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <v>6.57</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <v>6.3283327694080099E-2</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <v>6.24</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <v>0.139509016036754</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="4">
         <v>5.55</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="11">
         <v>-1.1514489221581501</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>5.84</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <v>-3.3437411434373799E-3</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="3">
         <v>6.19</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>0.27093267327290999</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="3">
         <v>6.8</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="3">
         <v>5.52</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>0.76046107000274799</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6498,7 +6492,7 @@
       <c r="C29" s="5">
         <v>6.33</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -6534,16 +6528,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -7040,28 +7034,28 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <v>6.52</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>2.39562325898601</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="14" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7355,51 +7349,51 @@
       <c r="A33" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="3">
         <v>6.36</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="3">
         <v>-0.36915468144115898</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="16">
         <v>6.61</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <v>0.45892609597649398</v>
       </c>
-      <c r="F34" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="18" t="s">
+      <c r="F34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7407,25 +7401,25 @@
       <c r="A35" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="4">
         <v>6.86</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="12" t="s">
+      <c r="E35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7433,25 +7427,25 @@
       <c r="A36" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="4">
         <v>6.44</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="12" t="s">
+      <c r="E36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -7459,25 +7453,25 @@
       <c r="A37" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="4">
         <v>6.35</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="11">
         <v>0.61633287696167804</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="12" t="s">
+      <c r="F37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7485,25 +7479,25 @@
       <c r="A38" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="3">
         <v>5.66</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <v>-9.7723456445923104E-2</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7511,25 +7505,25 @@
       <c r="A39" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="3">
         <v>6.3</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="9">
         <v>9.9084134912118302E-2</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7537,25 +7531,25 @@
       <c r="A40" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="3">
         <v>7.4</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="9" t="s">
+      <c r="E40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7563,25 +7557,25 @@
       <c r="A41" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="4">
         <v>6.79</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="12" t="s">
+      <c r="E41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7589,25 +7583,25 @@
       <c r="A42" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="4">
         <v>6.79</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="12" t="s">
+      <c r="E42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7615,25 +7609,25 @@
       <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="3">
         <v>6.37</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <v>0.31835873797689401</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="9" t="s">
+      <c r="F43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7641,25 +7635,25 @@
       <c r="A44" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="4">
         <v>6.63</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="11">
         <v>1.25474379841096</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="4" t="s">
         <v>127</v>
       </c>
     </row>
@@ -7667,25 +7661,25 @@
       <c r="A45" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="4">
         <v>7.28</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="11">
         <v>-1.2352976194846399</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="4" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7693,25 +7687,25 @@
       <c r="A46" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="3">
         <v>6.4</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="9">
         <v>8.8921297920023804E-2</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7719,285 +7713,285 @@
       <c r="A47" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="3">
         <v>6.54</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="9">
         <v>-0.47825171073526102</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="9" t="s">
+      <c r="F47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="4">
         <v>5.87</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="11">
         <v>0.68433744146022901</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="12">
         <v>5.94</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="13">
         <v>0.94175262330099896</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="14" t="s">
+      <c r="H49" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="14">
         <v>6.36</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="15">
         <v>-0.66293046908685904</v>
       </c>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="16" t="s">
+      <c r="H50" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="12">
         <v>6.3</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="13">
         <v>-0.90216550976038001</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="14">
         <v>6.36</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="15">
         <v>0.66293046844657499</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="4">
         <v>6.3</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="11">
         <v>0.90216550976038001</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="H53" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="14">
         <v>6.57</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="15">
         <v>6.3283327694080099E-2</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H54" s="16" t="s">
+      <c r="H54" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="12">
         <v>6.24</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="13">
         <v>0.139509016036754</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="4">
         <v>5.55</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="11">
         <v>-1.1514489221581501</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="H56" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="4">
         <v>5.84</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="11">
         <v>-3.3437411434373799E-3</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H57" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -8005,25 +7999,25 @@
       <c r="A58" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="3">
         <v>6.19</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="9">
         <v>0.27093267327290999</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8031,25 +8025,25 @@
       <c r="A59" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="3">
         <v>6.8</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="9" t="s">
+      <c r="E59" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8057,25 +8051,25 @@
       <c r="A60" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="3">
         <v>5.52</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="9">
         <v>0.76046107000274799</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -8092,7 +8086,7 @@
       <c r="D61" s="5">
         <v>6.33</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="5" t="s">
@@ -8118,7 +8112,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8128,419 +8122,419 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="22">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22">
+      <c r="C3" s="20">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="22">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22">
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="22">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="22">
-        <v>0</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="22">
-        <v>0</v>
-      </c>
-      <c r="D7" s="22">
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="22">
-        <v>1</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="C8" s="20">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="22">
-        <v>1</v>
-      </c>
-      <c r="D9" s="22">
+      <c r="C9" s="20">
+        <v>1</v>
+      </c>
+      <c r="D9" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="22">
-        <v>1</v>
-      </c>
-      <c r="D10" s="22">
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="22">
-        <v>1</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="22">
-        <v>1</v>
-      </c>
-      <c r="D12" s="22">
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="22">
-        <v>1</v>
-      </c>
-      <c r="D13" s="22">
+      <c r="C13" s="20">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="22">
-        <v>1</v>
-      </c>
-      <c r="D14" s="22">
+      <c r="C14" s="20">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="22">
-        <v>0</v>
-      </c>
-      <c r="D15" s="22">
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+      <c r="D15" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="22">
-        <v>0</v>
-      </c>
-      <c r="D16" s="22">
+      <c r="C16" s="20">
+        <v>0</v>
+      </c>
+      <c r="D16" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="22">
-        <v>1</v>
-      </c>
-      <c r="D17" s="22">
+      <c r="C17" s="20">
+        <v>1</v>
+      </c>
+      <c r="D17" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="22">
-        <v>1</v>
-      </c>
-      <c r="D18" s="22">
+      <c r="C18" s="20">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="22">
-        <v>1</v>
-      </c>
-      <c r="D19" s="22">
+      <c r="C19" s="20">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="22">
-        <v>1</v>
-      </c>
-      <c r="D20" s="22">
+      <c r="C20" s="20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="22">
-        <v>1</v>
-      </c>
-      <c r="D21" s="22">
+      <c r="C21" s="20">
+        <v>1</v>
+      </c>
+      <c r="D21" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="22">
+      <c r="C22" s="20">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="22">
-        <v>1</v>
-      </c>
-      <c r="D23" s="22">
+      <c r="C23" s="20">
+        <v>1</v>
+      </c>
+      <c r="D23" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="22">
-        <v>1</v>
-      </c>
-      <c r="D24" s="22">
+      <c r="C24" s="20">
+        <v>1</v>
+      </c>
+      <c r="D24" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="22">
-        <v>0</v>
-      </c>
-      <c r="D25" s="22">
+      <c r="C25" s="20">
+        <v>0</v>
+      </c>
+      <c r="D25" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="22">
-        <v>0</v>
-      </c>
-      <c r="D26" s="22">
+      <c r="C26" s="20">
+        <v>0</v>
+      </c>
+      <c r="D26" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="22">
-        <v>1</v>
-      </c>
-      <c r="D27" s="22">
+      <c r="C27" s="20">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="22">
-        <v>1</v>
-      </c>
-      <c r="D28" s="22">
+      <c r="C28" s="20">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="22">
-        <v>1</v>
-      </c>
-      <c r="D29" s="22">
+      <c r="C29" s="20">
+        <v>1</v>
+      </c>
+      <c r="D29" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="25">
-        <v>1</v>
-      </c>
-      <c r="D30" s="25">
+      <c r="C30" s="23">
+        <v>1</v>
+      </c>
+      <c r="D30" s="23">
         <v>0</v>
       </c>
     </row>
